--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,99 +40,114 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>stress</t>
+  </si>
+  <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>cancelled</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -154,22 +169,31 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
@@ -178,103 +202,109 @@
     <t>good</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>join</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>shop</t>
   </si>
   <si>
-    <t>stay</t>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -632,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +731,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -751,13 +781,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8082191780821918</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +881,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,16 +902,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7666666666666667</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,16 +952,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,16 +1002,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>0.8433420365535248</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>323</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>323</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +1031,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7391304347826086</v>
+        <v>0.797945205479452</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>233</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>233</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,31 +1049,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>59</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L9">
+        <v>27</v>
+      </c>
+      <c r="M9">
+        <v>27</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>6</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L9">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>47</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1131,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.72</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,16 +1152,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.7924528301886793</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1181,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7027027027027027</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>0.7875</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L12">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="M12">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6923076923076923</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.7872340425531915</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1281,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.576271186440678</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1331,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.575</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>0.7804878048780488</v>
+        <v>0.79375</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5652173913043478</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K16">
-        <v>0.7746478873239436</v>
+        <v>0.7890625</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1431,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5502645502645502</v>
+        <v>0.64</v>
       </c>
       <c r="C17">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1451,13 +1481,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5483870967741935</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K18">
-        <v>0.7037037037037037</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1501,13 +1531,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5406976744186046</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C19">
-        <v>279</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>279</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K19">
-        <v>0.6976744186046512</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1581,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K20">
-        <v>0.6875</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1593,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1631,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5098039215686274</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K21">
-        <v>0.6825396825396826</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,13 +1681,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5033557046979866</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C22">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="D22">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1731,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4615384615384616</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K23">
-        <v>0.638235294117647</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L23">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,13 +1781,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4375</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1769,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,13 +1831,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4193548387096774</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1819,31 +1849,31 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L25">
+        <v>45</v>
+      </c>
+      <c r="M25">
+        <v>45</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>18</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25">
-        <v>0.6</v>
-      </c>
-      <c r="L25">
-        <v>177</v>
-      </c>
-      <c r="M25">
-        <v>177</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1881,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K26">
-        <v>0.5857740585774058</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,13 +1931,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3928571428571428</v>
+        <v>0.44</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1919,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K27">
-        <v>0.5851063829787234</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1951,13 +1981,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3818181818181818</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1969,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1993,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2001,13 +2031,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3090909090909091</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2019,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K29">
-        <v>0.5600000000000001</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2043,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2051,13 +2081,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2777777777777778</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2069,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K30">
-        <v>0.5571428571428572</v>
+        <v>0.64</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2093,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,7 +2131,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2625</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C31">
         <v>21</v>
@@ -2119,19 +2149,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K31">
-        <v>0.550561797752809</v>
+        <v>0.625</v>
       </c>
       <c r="L31">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2143,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2151,13 +2181,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.246031746031746</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C32">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2169,19 +2199,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K32">
-        <v>0.5357142857142857</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2193,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2201,13 +2231,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2337662337662338</v>
+        <v>0.375</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2219,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2243,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2251,13 +2281,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1501340482573726</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C34">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2269,19 +2299,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2293,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2301,13 +2331,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.05333333333333334</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2319,19 +2349,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>284</v>
+        <v>64</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K35">
-        <v>0.4901960784313725</v>
+        <v>0.6</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2343,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2351,37 +2381,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006125080593165699</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E36">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>3083</v>
+        <v>57</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K36">
-        <v>0.4242424242424243</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2393,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2401,37 +2431,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006074766355140187</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D37">
+        <v>65</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>187</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L37">
         <v>16</v>
       </c>
-      <c r="E37">
-        <v>0.19</v>
-      </c>
-      <c r="F37">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>2127</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L37">
-        <v>15</v>
-      </c>
       <c r="M37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2443,41 +2473,89 @@
         <v>0</v>
       </c>
       <c r="Q37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.175</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>66</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L38">
+        <v>40</v>
+      </c>
+      <c r="M38">
+        <v>40</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K38">
-        <v>0.3205128205128205</v>
-      </c>
-      <c r="L38">
-        <v>25</v>
-      </c>
-      <c r="M38">
-        <v>25</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>53</v>
-      </c>
-    </row>
     <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.1340482573726542</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>323</v>
+      </c>
       <c r="J39" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K39">
-        <v>0.3095238095238095</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L39">
         <v>13</v>
@@ -2495,21 +2573,45 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>17</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>283</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K40">
-        <v>0.3013698630136986</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2521,21 +2623,45 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.01095008051529791</v>
+      </c>
+      <c r="C41">
+        <v>34</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <v>0.06</v>
+      </c>
+      <c r="F41">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>3071</v>
+      </c>
       <c r="J41" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K41">
-        <v>0.2711864406779661</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2547,21 +2673,45 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.009822263797942002</v>
+      </c>
+      <c r="C42">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>0.19</v>
+      </c>
+      <c r="F42">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2117</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K42">
-        <v>0.234375</v>
+        <v>0.5</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2573,21 +2723,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K43">
-        <v>0.2295081967213115</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2599,21 +2749,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K44">
-        <v>0.08108108108108109</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2625,21 +2775,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>170</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K45">
-        <v>0.04545454545454546</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2651,7 +2801,137 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>294</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K46">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L46">
+        <v>26</v>
+      </c>
+      <c r="M46">
+        <v>26</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K47">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L47">
+        <v>22</v>
+      </c>
+      <c r="M47">
+        <v>22</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48">
+        <v>0.288135593220339</v>
+      </c>
+      <c r="L48">
+        <v>17</v>
+      </c>
+      <c r="M48">
+        <v>17</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K49">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L49">
+        <v>15</v>
+      </c>
+      <c r="M49">
+        <v>15</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K50">
+        <v>0.00658513640639699</v>
+      </c>
+      <c r="L50">
+        <v>21</v>
+      </c>
+      <c r="M50">
+        <v>33</v>
+      </c>
+      <c r="N50">
+        <v>0.64</v>
+      </c>
+      <c r="O50">
+        <v>0.36</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3168</v>
       </c>
     </row>
   </sheetData>
